--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -735,25 +735,25 @@
         <v>1725.07</v>
       </c>
       <c r="AC2">
-        <v>4.939473684210527</v>
+        <v>4.94</v>
       </c>
       <c r="AD2">
-        <v>40.95999999999999</v>
+        <v>40.96</v>
       </c>
       <c r="AE2">
-        <v>2.212105263157895</v>
+        <v>2.21</v>
       </c>
       <c r="AF2">
         <v>69.31999999999999</v>
       </c>
       <c r="AG2">
-        <v>2.047894736842105</v>
+        <v>2.05</v>
       </c>
       <c r="AH2">
-        <v>2.212105263157895</v>
+        <v>2.21</v>
       </c>
       <c r="AI2">
-        <v>-0.3705263157894738</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1472,13 +1472,13 @@
         <v>10.42</v>
       </c>
       <c r="Y9">
-        <v>-35.00909090909091</v>
+        <v>-35.01</v>
       </c>
       <c r="Z9">
-        <v>53.21636363636362</v>
+        <v>53.22</v>
       </c>
       <c r="AA9">
-        <v>98.64545454545454</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="AB9">
         <v>2266.99</v>
@@ -1493,7 +1493,7 @@
         <v>0.58</v>
       </c>
       <c r="AF9">
-        <v>53.21090909090908</v>
+        <v>53.21</v>
       </c>
       <c r="AG9">
         <v>0.53</v>
@@ -1579,13 +1579,13 @@
         <v>10.42</v>
       </c>
       <c r="Y10">
-        <v>-35.00909090909091</v>
+        <v>-35.01</v>
       </c>
       <c r="Z10">
-        <v>53.21636363636362</v>
+        <v>53.22</v>
       </c>
       <c r="AA10">
-        <v>98.64545454545454</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="AB10">
         <v>2335.69</v>
@@ -1600,7 +1600,7 @@
         <v>0.88</v>
       </c>
       <c r="AF10">
-        <v>53.21090909090908</v>
+        <v>53.21</v>
       </c>
       <c r="AG10">
         <v>0.33</v>
@@ -1686,13 +1686,13 @@
         <v>10.42</v>
       </c>
       <c r="Y11">
-        <v>-35.00909090909091</v>
+        <v>-35.01</v>
       </c>
       <c r="Z11">
-        <v>53.21636363636362</v>
+        <v>53.22</v>
       </c>
       <c r="AA11">
-        <v>98.64545454545454</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="AB11">
         <v>2741.56</v>
@@ -1707,7 +1707,7 @@
         <v>1.36</v>
       </c>
       <c r="AF11">
-        <v>53.21090909090908</v>
+        <v>53.21</v>
       </c>
       <c r="AG11">
         <v>0.84</v>
@@ -1769,7 +1769,7 @@
         <v>-263.96</v>
       </c>
       <c r="Q12">
-        <v>-64.63315789473684</v>
+        <v>-64.63</v>
       </c>
       <c r="R12">
         <v>-5.31</v>
@@ -1793,13 +1793,13 @@
         <v>10.42</v>
       </c>
       <c r="Y12">
-        <v>-35.00909090909091</v>
+        <v>-35.01</v>
       </c>
       <c r="Z12">
-        <v>53.21636363636362</v>
+        <v>53.22</v>
       </c>
       <c r="AA12">
-        <v>98.64545454545454</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="AB12">
         <v>2541.77</v>
@@ -1814,7 +1814,7 @@
         <v>0.88</v>
       </c>
       <c r="AF12">
-        <v>53.21090909090908</v>
+        <v>53.21</v>
       </c>
       <c r="AG12">
         <v>-0.74</v>
@@ -1900,13 +1900,13 @@
         <v>10.42</v>
       </c>
       <c r="Y13">
-        <v>-35.00909090909091</v>
+        <v>-35.01</v>
       </c>
       <c r="Z13">
-        <v>53.21636363636362</v>
+        <v>53.22</v>
       </c>
       <c r="AA13">
-        <v>98.64545454545454</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="AB13">
         <v>1248.49</v>
@@ -1921,7 +1921,7 @@
         <v>0.77</v>
       </c>
       <c r="AF13">
-        <v>53.21090909090908</v>
+        <v>53.21</v>
       </c>
       <c r="AG13">
         <v>1.63</v>
@@ -2007,13 +2007,13 @@
         <v>10.42</v>
       </c>
       <c r="Y14">
-        <v>-35.00909090909091</v>
+        <v>-35.01</v>
       </c>
       <c r="Z14">
-        <v>53.21636363636362</v>
+        <v>53.22</v>
       </c>
       <c r="AA14">
-        <v>98.64545454545454</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="AB14">
         <v>1542.11</v>
@@ -2028,7 +2028,7 @@
         <v>2.14</v>
       </c>
       <c r="AF14">
-        <v>53.21090909090908</v>
+        <v>53.21</v>
       </c>
       <c r="AG14">
         <v>2.71</v>
@@ -2114,13 +2114,13 @@
         <v>10.42</v>
       </c>
       <c r="Y15">
-        <v>-35.00909090909091</v>
+        <v>-35.01</v>
       </c>
       <c r="Z15">
-        <v>53.21636363636362</v>
+        <v>53.22</v>
       </c>
       <c r="AA15">
-        <v>98.64545454545454</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="AB15">
         <v>1745.85</v>
@@ -2135,7 +2135,7 @@
         <v>3.42</v>
       </c>
       <c r="AF15">
-        <v>53.21090909090908</v>
+        <v>53.21</v>
       </c>
       <c r="AG15">
         <v>7.92</v>
@@ -2221,13 +2221,13 @@
         <v>10.42</v>
       </c>
       <c r="Y16">
-        <v>-35.00909090909091</v>
+        <v>-35.01</v>
       </c>
       <c r="Z16">
-        <v>53.21636363636362</v>
+        <v>53.22</v>
       </c>
       <c r="AA16">
-        <v>98.64545454545454</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="AB16">
         <v>1365.6</v>
@@ -2242,7 +2242,7 @@
         <v>2.19</v>
       </c>
       <c r="AF16">
-        <v>53.21090909090908</v>
+        <v>53.21</v>
       </c>
       <c r="AG16">
         <v>1.74</v>
@@ -2435,13 +2435,13 @@
         <v>10.42</v>
       </c>
       <c r="Y18">
-        <v>-35.00909090909091</v>
+        <v>-35.01</v>
       </c>
       <c r="Z18">
-        <v>53.21636363636362</v>
+        <v>53.22</v>
       </c>
       <c r="AA18">
-        <v>98.64545454545454</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="AB18">
         <v>1099.63</v>
@@ -2456,7 +2456,7 @@
         <v>5.79</v>
       </c>
       <c r="AF18">
-        <v>53.21090909090908</v>
+        <v>53.21</v>
       </c>
       <c r="AG18">
         <v>1.48</v>
